--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>749596.0721526572</v>
+        <v>826140.359392366</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5214283.94709158</v>
+        <v>5564538.631857703</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9794333.150173998</v>
+        <v>9648153.93820096</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>55.76699635726884</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.7944255145766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>212.6443660409371</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>307.6157180769487</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814351</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1977700471494</v>
+        <v>186.1075578061192</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>296.0128616828158</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,10 +1192,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>32.49442595689521</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863191</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1585,13 +1587,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>59.09222624065444</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>282.9660213629339</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835038</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>211.0785184722391</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492339</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>327.392479738373</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>79.41818244097568</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2020,7 +2022,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>80.00124118081789</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>53.7634345605265</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>57.92518451681089</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>126.53888249517</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>22.70015500804147</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2256,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>80.00124118081825</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>50.36860283745218</v>
       </c>
       <c r="D25" t="n">
-        <v>125.1929118796479</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>323.8487109263037</v>
+        <v>229.7965692041365</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>47.41254713315905</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>114.2656173771016</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041362</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>47.43217639605532</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>184.6961728433115</v>
+        <v>127.8051165578006</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>135.0352507668772</v>
       </c>
       <c r="U32" t="n">
-        <v>199.7325946875369</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>98.12640288586276</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>235.2884396634742</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>297.9783914460479</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3439,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>68.85005436466936</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>13.02719212039583</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3506,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>145.2481701217147</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>47.36730931179461</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>127.3165365479905</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>105.0023863360924</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>138.1468804189075</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>183.0172251110631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>15.63807347850683</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>235.9375844494528</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>57.92518451681044</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4144,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>131.6653792309046</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>35.65326387230725</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1238.326884986528</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1238.326884986528</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1238.326884986528</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520488</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520488</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1624.92672505065</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>1866.686420315119</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>1697.750237387212</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>1547.633597974876</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>2048.334885145359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2231.276441056583</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1878.507785786469</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>663.098607412119</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.984276312612</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.984276312612</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2349.518518051532</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1959.379186075721</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8377936138381</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.8377936138381</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>383.3613929424835</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C13" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
         <v>66.51211643218342</v>
@@ -5197,16 +5199,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.219606953214</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>785.8024369162533</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X13" t="n">
-        <v>785.8024369162533</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y13" t="n">
-        <v>565.0098577727232</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.569348694472</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C14" t="n">
-        <v>1491.569348694472</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D14" t="n">
-        <v>1491.569348694472</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="E14" t="n">
-        <v>1105.781096096228</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F14" t="n">
-        <v>694.7951913066204</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>279.7227411516168</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5290,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W14" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.169188758594</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.464090846021</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.569348694473</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1491.569348694473</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1491.569348694473</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1105.781096096229</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>694.7951913066213</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265601</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995486</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734407</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.169188758595</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>1075.097337786231</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>906.1611548583246</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>756.0445154459888</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>608.1314218635957</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>461.2414743656853</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>293.5386377404043</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>147.3214509582621</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U19" t="n">
-        <v>1548.361223971664</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V19" t="n">
-        <v>1548.361223971664</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="W19" t="n">
-        <v>1548.361223971664</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.054724415577</v>
+        <v>1477.538381760001</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>1256.745802616471</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1179.52858457759</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C20" t="n">
-        <v>810.5660676371781</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>452.3003690304276</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>66.5121164321834</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
@@ -5771,7 +5773,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
@@ -5780,22 +5782,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W20" t="n">
-        <v>2329.733514878603</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X20" t="n">
-        <v>1956.267756617523</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.128424641711</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>846.0716871064747</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>827.0643955080126</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>920.74166499863</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>820.4128495803443</v>
+        <v>2392.599276780829</v>
       </c>
       <c r="C22" t="n">
-        <v>651.4766666524374</v>
+        <v>2223.663093852922</v>
       </c>
       <c r="D22" t="n">
-        <v>501.3600272401017</v>
+        <v>2073.546454440587</v>
       </c>
       <c r="E22" t="n">
-        <v>478.4305777370295</v>
+        <v>1925.633360858194</v>
       </c>
       <c r="F22" t="n">
-        <v>331.5406302391191</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8377936138381</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.527932658018</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="V22" t="n">
-        <v>1450.843444452132</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.843444452132</v>
+        <v>3023.029871652617</v>
       </c>
       <c r="X22" t="n">
-        <v>1222.853893554114</v>
+        <v>2795.040320754599</v>
       </c>
       <c r="Y22" t="n">
-        <v>1002.061314410584</v>
+        <v>2574.247741611069</v>
       </c>
     </row>
     <row r="23">
@@ -6005,7 +6007,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052367</v>
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>899.0183448486839</v>
+        <v>973.5548741173876</v>
       </c>
       <c r="C25" t="n">
-        <v>899.0183448486839</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D25" t="n">
         <v>772.5608581015648</v>
@@ -6175,22 +6177,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V25" t="n">
-        <v>1416.425065783662</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W25" t="n">
-        <v>1127.007895746701</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X25" t="n">
-        <v>899.0183448486839</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y25" t="n">
-        <v>899.0183448486839</v>
+        <v>1155.203338947627</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
@@ -6257,19 +6259,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2744.955434856437</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W26" t="n">
-        <v>2392.186779586323</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X26" t="n">
-        <v>2392.186779586323</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986293</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2440.490738531496</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C28" t="n">
-        <v>2271.554555603589</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D28" t="n">
-        <v>2121.437916191253</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E28" t="n">
-        <v>1973.52482260886</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F28" t="n">
-        <v>1826.63487511095</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>1658.932038485669</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>1512.714851703527</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V28" t="n">
-        <v>3070.921333403283</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W28" t="n">
-        <v>3070.921333403283</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X28" t="n">
-        <v>2842.931782505266</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y28" t="n">
-        <v>2622.139203361736</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1190.127582679363</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C29" t="n">
-        <v>821.1650657389509</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D29" t="n">
-        <v>821.1650657389509</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E29" t="n">
-        <v>821.1650657389509</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218339</v>
@@ -6491,22 +6493,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3277.694532320225</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3024.164055594061</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>2693.10116825049</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2340.332512980376</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X29" t="n">
-        <v>1966.866754719296</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>1576.727422743484</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811075</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999805</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387292</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332737</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601587</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927768</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064433</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986293</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>531.7821255545682</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="C31" t="n">
-        <v>362.8459426266613</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D31" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E31" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F31" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218339</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>1451.629890463316</v>
+        <v>1005.812647036904</v>
       </c>
       <c r="W31" t="n">
-        <v>1162.212720426355</v>
+        <v>716.3954769999436</v>
       </c>
       <c r="X31" t="n">
-        <v>934.2231695283381</v>
+        <v>716.3954769999436</v>
       </c>
       <c r="Y31" t="n">
-        <v>713.4305903848079</v>
+        <v>495.6028978564135</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1179.52858457759</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C32" t="n">
-        <v>810.5660676371781</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D32" t="n">
-        <v>452.3003690304276</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>66.5121164321834</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>66.5121164321834</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6698,25 +6700,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
@@ -6728,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3078.915909937399</v>
       </c>
       <c r="U32" t="n">
-        <v>3013.565057492288</v>
+        <v>3078.915909937399</v>
       </c>
       <c r="V32" t="n">
-        <v>2682.502170148718</v>
+        <v>3078.915909937399</v>
       </c>
       <c r="W32" t="n">
-        <v>2329.733514878603</v>
+        <v>2726.147254667285</v>
       </c>
       <c r="X32" t="n">
-        <v>1956.267756617523</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y32" t="n">
-        <v>1566.128424641711</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986293</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>313.5427886871652</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>165.6296951047721</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
@@ -6889,19 +6891,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="U34" t="n">
-        <v>1927.294548088492</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>1927.294548088492</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.044275313594</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.054724415577</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1480.516858765517</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C35" t="n">
-        <v>1111.554341825105</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D35" t="n">
-        <v>753.2886432183548</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E35" t="n">
-        <v>367.5003906201105</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,16 +6949,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
@@ -6971,16 +6973,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2630.72178906653</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2257.25603080545</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y35" t="n">
-        <v>1867.116698829639</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7026,7 +7028,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>917.6163259372726</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C37" t="n">
-        <v>748.6801430093657</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D37" t="n">
-        <v>598.5635035970299</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E37" t="n">
-        <v>450.6504100146368</v>
+        <v>540.4808672571088</v>
       </c>
       <c r="F37" t="n">
-        <v>303.7604625167264</v>
+        <v>393.5909197591984</v>
       </c>
       <c r="G37" t="n">
-        <v>136.0576258914454</v>
+        <v>225.8880831339174</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>79.67089635177516</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W37" t="n">
-        <v>1548.04692080906</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X37" t="n">
-        <v>1320.057369911042</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y37" t="n">
-        <v>1099.264790767512</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218339</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>3071.782307011781</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>2740.71941966821</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2740.71941966821</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X38" t="n">
-        <v>2367.25366140713</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,31 +7271,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
         <v>1109.759191501176</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>1593.425952122549</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.46409084602</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.46409084602</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.46409084602</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.46409084602</v>
+        <v>2278.535509682808</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>1989.118339645848</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>1761.12878874783</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>1761.12878874783</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1179.52858457759</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C41" t="n">
-        <v>810.5660676371781</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D41" t="n">
-        <v>452.3003690304276</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E41" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,16 +7423,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
@@ -7442,19 +7444,19 @@
         <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3013.565057492288</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V41" t="n">
-        <v>2682.502170148718</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W41" t="n">
-        <v>2329.733514878603</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X41" t="n">
-        <v>1956.267756617523</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y41" t="n">
-        <v>1566.128424641711</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="42">
@@ -7479,28 +7481,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.4780323548191</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>364.5418494269122</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T43" t="n">
-        <v>1742.428664137924</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U43" t="n">
-        <v>1453.325797263567</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V43" t="n">
-        <v>1453.325797263567</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W43" t="n">
-        <v>1163.908627226606</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X43" t="n">
-        <v>935.919076328589</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.1264971850588</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>663.0986074121186</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>304.832908805368</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,16 +7660,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7676,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3267.095534218452</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.565057492288</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641711</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.3980557622424</v>
+        <v>2379.377422555157</v>
       </c>
       <c r="C46" t="n">
-        <v>678.4618728343355</v>
+        <v>2210.44123962725</v>
       </c>
       <c r="D46" t="n">
-        <v>528.3452334219998</v>
+        <v>2060.324600214914</v>
       </c>
       <c r="E46" t="n">
-        <v>380.4321398396066</v>
+        <v>1912.411506632521</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>1765.521559134611</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>1597.81872250933</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U46" t="n">
-        <v>1477.828650634029</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.828650634029</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W46" t="n">
-        <v>1477.828650634029</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="X46" t="n">
-        <v>1249.839099736012</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.046520592482</v>
+        <v>2561.025887385397</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22547,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>326.1633737149929</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22565,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.443513141477</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22714,7 +22716,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>5.940287311157732</v>
       </c>
     </row>
     <row r="5">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>47.06732354373429</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803255</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22942,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.32522828944164</v>
+        <v>100.4154405304718</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>58.6701799378672</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23078,10 +23080,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>295.2578325132397</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23176,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.06888189215</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>193.0454170831736</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>3.556976973657072</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>296.7574771839114</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>83.52924591508136</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>83.52924591508042</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>290.3129182374934</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>16.35117922902023</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>171.9462208285107</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,16 +24022,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>145.9927856228093</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>222.702086222243</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>123.7338076385277</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>206.5217571557727</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>116.8782182611756</v>
       </c>
       <c r="D25" t="n">
-        <v>23.42256113856445</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24497,19 +24499,19 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>3.903547543831223</v>
+        <v>97.95568926599836</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.93987327667907</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24658,10 +24660,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594894</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24683,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>181.1251564493172</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>156.4857937435648</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>67.44147048051653</v>
+        <v>124.3325267660274</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -24968,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>68.88271937274297</v>
       </c>
       <c r="U32" t="n">
-        <v>51.26257727136507</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>47.29464513706849</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>129.9844521075334</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>108.8976542956636</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -25172,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>75.90496054965142</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>83.32522828944228</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>265.6735555317388</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>203.6278626471073</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>17.43847836633024</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594894</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25643,10 +25645,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>145.9927856228096</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>189.6053780512274</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>36.53172416510611</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>270.8849248580842</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>145.992785622809</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25883,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>145.9927856228097</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>13.08963568341619</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>250.5585743333056</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>847031.8278139901</v>
+        <v>772509.0922983248</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>847031.8278139901</v>
+        <v>772509.0922983247</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>847031.8278139901</v>
+        <v>847031.8278139899</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>847031.8278139899</v>
+        <v>847031.8278139897</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>847031.8278139901</v>
+        <v>847031.8278139899</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>847031.8278139899</v>
+        <v>847031.8278139898</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847031.8278139902</v>
+        <v>847031.8278139899</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>847031.8278139897</v>
+        <v>847031.8278139898</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>847031.8278139899</v>
+        <v>847031.8278139898</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>847031.8278139899</v>
+        <v>847031.8278139898</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>847031.8278139898</v>
+        <v>847031.8278139899</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>847031.8278139898</v>
+        <v>847031.8278139899</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358046.9539194664</v>
+        <v>321270.2120190238</v>
       </c>
       <c r="C2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="D2" t="n">
         <v>358046.9539194665</v>
       </c>
-      <c r="D2" t="n">
-        <v>358046.9539194664</v>
-      </c>
       <c r="E2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="F2" t="n">
         <v>358046.9539194666</v>
@@ -26332,7 +26334,7 @@
         <v>358046.9539194666</v>
       </c>
       <c r="I2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="J2" t="n">
         <v>358046.9539194666</v>
@@ -26344,16 +26346,16 @@
         <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194664</v>
       </c>
       <c r="O2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="P2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194666</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12210.17896214071</v>
+        <v>23400.41285106791</v>
       </c>
       <c r="C4" t="n">
-        <v>12210.17896214071</v>
+        <v>23400.41285106791</v>
       </c>
       <c r="D4" t="n">
         <v>12210.17896214071</v>
@@ -26427,7 +26429,7 @@
         <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
-        <v>12210.17896214071</v>
+        <v>12210.17896214073</v>
       </c>
       <c r="G4" t="n">
         <v>12210.17896214071</v>
@@ -26439,19 +26441,19 @@
         <v>12210.17896214071</v>
       </c>
       <c r="J4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="K4" t="n">
-        <v>12210.17896214073</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="L4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="M4" t="n">
         <v>12210.17896214071</v>
       </c>
       <c r="N4" t="n">
-        <v>12210.17896214073</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="O4" t="n">
         <v>12210.17896214071</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26479,19 +26481,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139327</v>
@@ -26500,16 +26502,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1090841.91133166</v>
+        <v>-909819.7568478084</v>
       </c>
       <c r="C6" t="n">
-        <v>237902.8343959325</v>
+        <v>204932.0267281113</v>
       </c>
       <c r="D6" t="n">
-        <v>237902.8343959324</v>
+        <v>45275.69395559443</v>
       </c>
       <c r="E6" t="n">
-        <v>271530.4343959325</v>
+        <v>271530.4343959328</v>
       </c>
       <c r="F6" t="n">
         <v>271530.4343959326</v>
@@ -26537,31 +26539,31 @@
         <v>271530.4343959326</v>
       </c>
       <c r="H6" t="n">
-        <v>271530.4343959328</v>
+        <v>271530.4343959326</v>
       </c>
       <c r="I6" t="n">
         <v>271530.4343959326</v>
       </c>
       <c r="J6" t="n">
-        <v>53999.23199865514</v>
+        <v>103925.2565859501</v>
       </c>
       <c r="K6" t="n">
         <v>271530.4343959326</v>
       </c>
       <c r="L6" t="n">
-        <v>271530.4343959327</v>
+        <v>223236.4643877418</v>
       </c>
       <c r="M6" t="n">
         <v>271530.4343959326</v>
       </c>
       <c r="N6" t="n">
-        <v>271530.4343959327</v>
+        <v>271530.4343959322</v>
       </c>
       <c r="O6" t="n">
         <v>271530.4343959326</v>
       </c>
       <c r="P6" t="n">
-        <v>271530.4343959326</v>
+        <v>271530.4343959327</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000385</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022924</v>
@@ -26820,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623188</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33746,13 +33748,13 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987486</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923316</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37394,13 +37396,13 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127271</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
